--- a/CollineSingleUserTest/colline/TestData/Login.xlsx
+++ b/CollineSingleUserTest/colline/TestData/Login.xlsx
@@ -10,7 +10,6 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
